--- a/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BFD75-92B7-4F8A-8685-E6FD15A1057C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEDC524-6640-48E7-91A0-550BEEA58270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="84">
   <si>
     <t>Activity</t>
   </si>
@@ -212,12 +212,6 @@
     <t>Carbon monoxide, non-fossil</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>market group for electricity, low voltage</t>
   </si>
   <si>
@@ -280,11 +274,26 @@
   <si>
     <t>RAS</t>
   </si>
+  <si>
+    <t>Car db</t>
+  </si>
+  <si>
+    <t>market for water, ultrapure</t>
+  </si>
+  <si>
+    <t>water, ultrapure</t>
+  </si>
+  <si>
+    <t>CA-QC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,12 +346,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4674D2C-5661-4846-9F02-29F681DCA85F}">
   <dimension ref="A1:H643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
-      <selection activeCell="A628" sqref="A628"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +742,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -865,7 +875,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>0.13321500162583566</v>
@@ -986,13 +996,13 @@
         <v>52</v>
       </c>
       <c r="B29">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -1150,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1205,8 +1215,8 @@
         <v>21</v>
       </c>
       <c r="B45">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -1235,7 +1245,7 @@
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -1249,32 +1259,35 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B47" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B48" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -1294,11 +1307,11 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B49" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -1310,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
@@ -1318,11 +1331,11 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -1334,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -1342,23 +1355,23 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
         <v>66</v>
-      </c>
-      <c r="B51">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
@@ -1366,11 +1379,11 @@
     </row>
     <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B52" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -1382,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
@@ -1390,11 +1403,11 @@
     </row>
     <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B53" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
@@ -1406,7 +1419,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
@@ -1457,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -1465,7 +1478,7 @@
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -1515,7 +1528,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -1581,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -1598,13 +1611,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>0.13321500162583566</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1680,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -1719,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="B81">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -1745,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -1883,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -1899,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -1938,8 +1951,8 @@
         <v>21</v>
       </c>
       <c r="B97">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
@@ -1965,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -1982,35 +1995,38 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B99" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>82</v>
       </c>
       <c r="H99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B100" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2027,11 +2043,11 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B101" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -2043,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
@@ -2051,11 +2067,11 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B102" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -2067,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -2075,23 +2091,23 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
         <v>66</v>
-      </c>
-      <c r="B103">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C103" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>68</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -2099,14 +2115,14 @@
     </row>
     <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B104">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B104" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -2115,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H104" t="s">
         <v>3</v>
@@ -2123,11 +2139,11 @@
     </row>
     <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B105" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C105" t="s">
         <v>33</v>
@@ -2139,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
@@ -2190,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -2198,7 +2214,7 @@
         <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -2248,7 +2264,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C117" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -2314,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -2331,13 +2347,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B121">
         <v>0.13321500162583566</v>
       </c>
       <c r="C121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2413,7 +2429,7 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
@@ -2452,13 +2468,13 @@
         <v>52</v>
       </c>
       <c r="B133">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
         <v>15</v>
@@ -2478,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
@@ -2616,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
@@ -2632,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -2671,8 +2687,8 @@
         <v>21</v>
       </c>
       <c r="B149">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C149" t="s">
         <v>33</v>
@@ -2698,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
         <v>22</v>
@@ -2715,35 +2731,38 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>59</v>
-      </c>
-      <c r="B151">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B151" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C151" t="s">
+        <v>55</v>
       </c>
       <c r="D151" t="s">
-        <v>43</v>
-      </c>
-      <c r="E151" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
       </c>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>61</v>
-      </c>
-      <c r="B152">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B152" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C152" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
@@ -2760,11 +2779,11 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>62</v>
-      </c>
-      <c r="B153">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B153" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -2776,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H153" t="s">
         <v>32</v>
@@ -2784,11 +2803,11 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>64</v>
-      </c>
-      <c r="B154">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B154" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -2800,7 +2819,7 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H154" t="s">
         <v>32</v>
@@ -2808,23 +2827,23 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
         <v>66</v>
-      </c>
-      <c r="B155">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C155" t="s">
-        <v>67</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>68</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
@@ -2832,14 +2851,14 @@
     </row>
     <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B156">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B156" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C156" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -2848,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H156" t="s">
         <v>3</v>
@@ -2856,11 +2875,11 @@
     </row>
     <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B157">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B157" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C157" t="s">
         <v>33</v>
@@ -2872,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
@@ -2923,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
@@ -2931,7 +2950,7 @@
         <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
@@ -2981,7 +3000,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -3047,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -3064,13 +3083,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B173">
         <v>0.13321500162583566</v>
       </c>
       <c r="C173" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3146,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
@@ -3185,13 +3204,13 @@
         <v>52</v>
       </c>
       <c r="B185">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F185" t="s">
         <v>15</v>
@@ -3211,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -3349,7 +3368,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
@@ -3365,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -3404,8 +3423,8 @@
         <v>21</v>
       </c>
       <c r="B201">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C201" t="s">
         <v>33</v>
@@ -3431,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
         <v>22</v>
@@ -3448,35 +3467,38 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>59</v>
-      </c>
-      <c r="B203">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B203" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C203" t="s">
+        <v>55</v>
       </c>
       <c r="D203" t="s">
-        <v>43</v>
-      </c>
-      <c r="E203" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G203" t="s">
+        <v>82</v>
       </c>
       <c r="H203" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>61</v>
-      </c>
-      <c r="B204">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B204" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C204" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -3493,11 +3515,11 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>62</v>
-      </c>
-      <c r="B205">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B205" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C205" t="s">
         <v>35</v>
@@ -3509,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H205" t="s">
         <v>32</v>
@@ -3517,11 +3539,11 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>64</v>
-      </c>
-      <c r="B206">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B206" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C206" t="s">
         <v>35</v>
@@ -3533,7 +3555,7 @@
         <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H206" t="s">
         <v>32</v>
@@ -3541,23 +3563,23 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
+        <v>64</v>
+      </c>
+      <c r="B207" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
         <v>66</v>
-      </c>
-      <c r="B207">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>67</v>
-      </c>
-      <c r="D207" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>68</v>
       </c>
       <c r="H207" t="s">
         <v>32</v>
@@ -3565,14 +3587,14 @@
     </row>
     <row r="208" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B208">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B208" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C208" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D208" t="s">
         <v>14</v>
@@ -3581,7 +3603,7 @@
         <v>15</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H208" t="s">
         <v>3</v>
@@ -3589,11 +3611,11 @@
     </row>
     <row r="209" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B209">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B209" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C209" t="s">
         <v>33</v>
@@ -3605,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
@@ -3656,7 +3678,7 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
@@ -3664,7 +3686,7 @@
         <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
@@ -3714,7 +3736,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C221" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -3780,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -3797,13 +3819,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B225">
         <v>0.13321500162583566</v>
       </c>
       <c r="C225" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -3879,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
@@ -3918,13 +3940,13 @@
         <v>52</v>
       </c>
       <c r="B237">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
         <v>15</v>
@@ -3944,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -4082,7 +4104,7 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
@@ -4098,7 +4120,7 @@
         <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -4137,8 +4159,8 @@
         <v>21</v>
       </c>
       <c r="B253">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C253" t="s">
         <v>33</v>
@@ -4164,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F254" t="s">
         <v>22</v>
@@ -4181,35 +4203,38 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>59</v>
-      </c>
-      <c r="B255">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B255" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C255" t="s">
+        <v>55</v>
       </c>
       <c r="D255" t="s">
-        <v>43</v>
-      </c>
-      <c r="E255" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G255" t="s">
+        <v>82</v>
       </c>
       <c r="H255" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>61</v>
-      </c>
-      <c r="B256">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B256" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C256" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
@@ -4226,11 +4251,11 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>62</v>
-      </c>
-      <c r="B257">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B257" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C257" t="s">
         <v>35</v>
@@ -4242,7 +4267,7 @@
         <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H257" t="s">
         <v>32</v>
@@ -4250,11 +4275,11 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>64</v>
-      </c>
-      <c r="B258">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B258" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -4266,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
@@ -4274,23 +4299,23 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>65</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" t="s">
         <v>66</v>
-      </c>
-      <c r="B259">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C259" t="s">
-        <v>67</v>
-      </c>
-      <c r="D259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" t="s">
-        <v>68</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
@@ -4298,14 +4323,14 @@
     </row>
     <row r="260" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B260">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B260" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C260" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D260" t="s">
         <v>14</v>
@@ -4314,7 +4339,7 @@
         <v>15</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H260" t="s">
         <v>3</v>
@@ -4322,11 +4347,11 @@
     </row>
     <row r="261" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B261">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B261" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C261" t="s">
         <v>33</v>
@@ -4338,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H261" t="s">
         <v>3</v>
@@ -4389,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
@@ -4397,7 +4422,7 @@
         <v>50</v>
       </c>
       <c r="B269" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
@@ -4447,7 +4472,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C273" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D273" t="s">
         <v>14</v>
@@ -4513,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D276" t="s">
         <v>14</v>
@@ -4536,7 +4561,7 @@
         <v>0.13321500162583566</v>
       </c>
       <c r="C277" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -4612,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
@@ -4651,13 +4676,13 @@
         <v>52</v>
       </c>
       <c r="B289">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D289" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F289" t="s">
         <v>15</v>
@@ -4677,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D290" t="s">
         <v>14</v>
@@ -4815,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
@@ -4831,7 +4856,7 @@
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -4870,8 +4895,8 @@
         <v>21</v>
       </c>
       <c r="B305">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C305" t="s">
         <v>33</v>
@@ -4897,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F306" t="s">
         <v>22</v>
@@ -4914,35 +4939,38 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>59</v>
-      </c>
-      <c r="B307">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B307" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C307" t="s">
+        <v>55</v>
       </c>
       <c r="D307" t="s">
-        <v>43</v>
-      </c>
-      <c r="E307" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G307" t="s">
+        <v>82</v>
       </c>
       <c r="H307" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>23</v>
-      </c>
-      <c r="B308">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B308" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C308" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D308" t="s">
         <v>7</v>
@@ -4959,11 +4987,11 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>62</v>
-      </c>
-      <c r="B309">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B309" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C309" t="s">
         <v>35</v>
@@ -4975,7 +5003,7 @@
         <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H309" t="s">
         <v>32</v>
@@ -4983,11 +5011,11 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>64</v>
-      </c>
-      <c r="B310">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B310" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C310" t="s">
         <v>35</v>
@@ -4999,7 +5027,7 @@
         <v>15</v>
       </c>
       <c r="G310" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H310" t="s">
         <v>32</v>
@@ -5007,23 +5035,23 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
+        <v>64</v>
+      </c>
+      <c r="B311" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>65</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" t="s">
         <v>66</v>
-      </c>
-      <c r="B311">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C311" t="s">
-        <v>67</v>
-      </c>
-      <c r="D311" t="s">
-        <v>14</v>
-      </c>
-      <c r="F311" t="s">
-        <v>15</v>
-      </c>
-      <c r="G311" t="s">
-        <v>68</v>
       </c>
       <c r="H311" t="s">
         <v>32</v>
@@ -5031,14 +5059,14 @@
     </row>
     <row r="312" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B312">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B312" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C312" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D312" t="s">
         <v>14</v>
@@ -5047,7 +5075,7 @@
         <v>15</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
@@ -5055,11 +5083,11 @@
     </row>
     <row r="313" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B313">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B313" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C313" t="s">
         <v>33</v>
@@ -5071,7 +5099,7 @@
         <v>15</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H313" t="s">
         <v>3</v>
@@ -5122,7 +5150,7 @@
         <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.35">
@@ -5130,7 +5158,7 @@
         <v>50</v>
       </c>
       <c r="B321" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
@@ -5180,7 +5208,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C325" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D325" t="s">
         <v>14</v>
@@ -5246,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D328" t="s">
         <v>14</v>
@@ -5269,7 +5297,7 @@
         <v>0.13321500162583566</v>
       </c>
       <c r="C329" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -5345,7 +5373,7 @@
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.35">
@@ -5384,13 +5412,13 @@
         <v>52</v>
       </c>
       <c r="B341">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D341" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F341" t="s">
         <v>15</v>
@@ -5410,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D342" t="s">
         <v>14</v>
@@ -5548,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.35">
@@ -5564,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -5603,8 +5631,8 @@
         <v>21</v>
       </c>
       <c r="B357">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C357" t="s">
         <v>33</v>
@@ -5630,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F358" t="s">
         <v>22</v>
@@ -5647,35 +5675,38 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>59</v>
-      </c>
-      <c r="B359">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B359" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C359" t="s">
+        <v>55</v>
       </c>
       <c r="D359" t="s">
-        <v>43</v>
-      </c>
-      <c r="E359" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F359" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G359" t="s">
+        <v>82</v>
       </c>
       <c r="H359" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>23</v>
-      </c>
-      <c r="B360">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B360" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C360" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -5692,11 +5723,11 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>62</v>
-      </c>
-      <c r="B361">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B361" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C361" t="s">
         <v>35</v>
@@ -5708,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="G361" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H361" t="s">
         <v>32</v>
@@ -5716,11 +5747,11 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>64</v>
-      </c>
-      <c r="B362">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B362" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C362" t="s">
         <v>35</v>
@@ -5732,7 +5763,7 @@
         <v>15</v>
       </c>
       <c r="G362" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H362" t="s">
         <v>32</v>
@@ -5740,23 +5771,23 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
+        <v>64</v>
+      </c>
+      <c r="B363" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>65</v>
+      </c>
+      <c r="D363" t="s">
+        <v>14</v>
+      </c>
+      <c r="F363" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" t="s">
         <v>66</v>
-      </c>
-      <c r="B363">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C363" t="s">
-        <v>67</v>
-      </c>
-      <c r="D363" t="s">
-        <v>14</v>
-      </c>
-      <c r="F363" t="s">
-        <v>15</v>
-      </c>
-      <c r="G363" t="s">
-        <v>68</v>
       </c>
       <c r="H363" t="s">
         <v>32</v>
@@ -5764,14 +5795,14 @@
     </row>
     <row r="364" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B364">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B364" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C364" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D364" t="s">
         <v>14</v>
@@ -5780,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="G364" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H364" t="s">
         <v>3</v>
@@ -5788,11 +5819,11 @@
     </row>
     <row r="365" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B365">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B365" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C365" t="s">
         <v>33</v>
@@ -5804,7 +5835,7 @@
         <v>15</v>
       </c>
       <c r="G365" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -5855,7 +5886,7 @@
         <v>11</v>
       </c>
       <c r="B372" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.35">
@@ -5863,7 +5894,7 @@
         <v>50</v>
       </c>
       <c r="B373" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.35">
@@ -5913,7 +5944,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C377" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D377" t="s">
         <v>14</v>
@@ -5979,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D380" t="s">
         <v>14</v>
@@ -5996,13 +6027,13 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B381">
         <v>0.13321500162583566</v>
       </c>
       <c r="C381" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D381" t="s">
         <v>7</v>
@@ -6078,7 +6109,7 @@
         <v>11</v>
       </c>
       <c r="B390" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
@@ -6117,13 +6148,13 @@
         <v>52</v>
       </c>
       <c r="B393">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C393" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F393" t="s">
         <v>15</v>
@@ -6143,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D394" t="s">
         <v>14</v>
@@ -6281,7 +6312,7 @@
         <v>6</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.35">
@@ -6297,7 +6328,7 @@
         <v>11</v>
       </c>
       <c r="B406" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -6336,8 +6367,8 @@
         <v>21</v>
       </c>
       <c r="B409">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C409" t="s">
         <v>33</v>
@@ -6363,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="C410" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D410" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F410" t="s">
         <v>22</v>
@@ -6380,35 +6411,38 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>59</v>
-      </c>
-      <c r="B411">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B411" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C411" t="s">
+        <v>83</v>
       </c>
       <c r="D411" t="s">
-        <v>43</v>
-      </c>
-      <c r="E411" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F411" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G411" t="s">
+        <v>82</v>
       </c>
       <c r="H411" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>61</v>
-      </c>
-      <c r="B412">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B412" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C412" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
@@ -6425,11 +6459,11 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>62</v>
-      </c>
-      <c r="B413">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B413" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C413" t="s">
         <v>35</v>
@@ -6441,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="G413" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H413" t="s">
         <v>32</v>
@@ -6449,11 +6483,11 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>64</v>
-      </c>
-      <c r="B414">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B414" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C414" t="s">
         <v>35</v>
@@ -6465,7 +6499,7 @@
         <v>15</v>
       </c>
       <c r="G414" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H414" t="s">
         <v>32</v>
@@ -6473,23 +6507,23 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
+        <v>64</v>
+      </c>
+      <c r="B415" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>65</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="F415" t="s">
+        <v>15</v>
+      </c>
+      <c r="G415" t="s">
         <v>66</v>
-      </c>
-      <c r="B415">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C415" t="s">
-        <v>67</v>
-      </c>
-      <c r="D415" t="s">
-        <v>14</v>
-      </c>
-      <c r="F415" t="s">
-        <v>15</v>
-      </c>
-      <c r="G415" t="s">
-        <v>68</v>
       </c>
       <c r="H415" t="s">
         <v>32</v>
@@ -6497,14 +6531,14 @@
     </row>
     <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B416">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B416" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C416" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D416" t="s">
         <v>14</v>
@@ -6513,7 +6547,7 @@
         <v>15</v>
       </c>
       <c r="G416" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H416" t="s">
         <v>3</v>
@@ -6521,11 +6555,11 @@
     </row>
     <row r="417" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B417">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B417" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C417" t="s">
         <v>33</v>
@@ -6537,7 +6571,7 @@
         <v>15</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H417" t="s">
         <v>3</v>
@@ -6588,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="B424" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.35">
@@ -6596,7 +6630,7 @@
         <v>50</v>
       </c>
       <c r="B425" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.35">
@@ -6646,7 +6680,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C429" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D429" t="s">
         <v>14</v>
@@ -6712,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D432" t="s">
         <v>14</v>
@@ -6729,13 +6763,13 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B433">
         <v>0.13321500162583566</v>
       </c>
       <c r="C433" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
@@ -6811,7 +6845,7 @@
         <v>11</v>
       </c>
       <c r="B442" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.35">
@@ -6850,13 +6884,13 @@
         <v>52</v>
       </c>
       <c r="B445">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C445" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D445" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F445" t="s">
         <v>15</v>
@@ -6876,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="C446" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D446" t="s">
         <v>14</v>
@@ -7014,7 +7048,7 @@
         <v>6</v>
       </c>
       <c r="B456" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.35">
@@ -7030,7 +7064,7 @@
         <v>11</v>
       </c>
       <c r="B458" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -7069,8 +7103,8 @@
         <v>21</v>
       </c>
       <c r="B461">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C461" t="s">
         <v>33</v>
@@ -7096,10 +7130,10 @@
         <v>1</v>
       </c>
       <c r="C462" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D462" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F462" t="s">
         <v>22</v>
@@ -7113,35 +7147,38 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>59</v>
-      </c>
-      <c r="B463">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B463" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C463" t="s">
+        <v>55</v>
       </c>
       <c r="D463" t="s">
-        <v>43</v>
-      </c>
-      <c r="E463" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F463" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G463" t="s">
+        <v>82</v>
       </c>
       <c r="H463" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>61</v>
-      </c>
-      <c r="B464">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B464" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C464" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D464" t="s">
         <v>7</v>
@@ -7158,11 +7195,11 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>62</v>
-      </c>
-      <c r="B465">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B465" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C465" t="s">
         <v>35</v>
@@ -7174,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="G465" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H465" t="s">
         <v>32</v>
@@ -7182,11 +7219,11 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>64</v>
-      </c>
-      <c r="B466">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B466" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C466" t="s">
         <v>35</v>
@@ -7198,7 +7235,7 @@
         <v>15</v>
       </c>
       <c r="G466" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H466" t="s">
         <v>32</v>
@@ -7206,23 +7243,23 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
+        <v>64</v>
+      </c>
+      <c r="B467" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C467" t="s">
+        <v>65</v>
+      </c>
+      <c r="D467" t="s">
+        <v>14</v>
+      </c>
+      <c r="F467" t="s">
+        <v>15</v>
+      </c>
+      <c r="G467" t="s">
         <v>66</v>
-      </c>
-      <c r="B467">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C467" t="s">
-        <v>67</v>
-      </c>
-      <c r="D467" t="s">
-        <v>14</v>
-      </c>
-      <c r="F467" t="s">
-        <v>15</v>
-      </c>
-      <c r="G467" t="s">
-        <v>68</v>
       </c>
       <c r="H467" t="s">
         <v>32</v>
@@ -7230,14 +7267,14 @@
     </row>
     <row r="468" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B468">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B468" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C468" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D468" t="s">
         <v>14</v>
@@ -7246,7 +7283,7 @@
         <v>15</v>
       </c>
       <c r="G468" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H468" t="s">
         <v>3</v>
@@ -7254,11 +7291,11 @@
     </row>
     <row r="469" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B469">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B469" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C469" t="s">
         <v>33</v>
@@ -7270,7 +7307,7 @@
         <v>15</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H469" t="s">
         <v>3</v>
@@ -7321,7 +7358,7 @@
         <v>11</v>
       </c>
       <c r="B476" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.35">
@@ -7329,7 +7366,7 @@
         <v>50</v>
       </c>
       <c r="B477" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.35">
@@ -7379,7 +7416,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C481" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D481" t="s">
         <v>14</v>
@@ -7445,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D484" t="s">
         <v>14</v>
@@ -7462,13 +7499,13 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B485">
         <v>0.13321500162583566</v>
       </c>
       <c r="C485" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
@@ -7544,7 +7581,7 @@
         <v>11</v>
       </c>
       <c r="B494" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.35">
@@ -7583,13 +7620,13 @@
         <v>52</v>
       </c>
       <c r="B497">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C497" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D497" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F497" t="s">
         <v>15</v>
@@ -7609,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -7747,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="B508" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.35">
@@ -7763,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="B510" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -7802,8 +7839,8 @@
         <v>21</v>
       </c>
       <c r="B513">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C513" t="s">
         <v>33</v>
@@ -7829,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="C514" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D514" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F514" t="s">
         <v>22</v>
@@ -7846,35 +7883,38 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>59</v>
-      </c>
-      <c r="B515">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B515" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C515" t="s">
+        <v>55</v>
       </c>
       <c r="D515" t="s">
-        <v>43</v>
-      </c>
-      <c r="E515" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F515" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G515" t="s">
+        <v>82</v>
       </c>
       <c r="H515" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>61</v>
-      </c>
-      <c r="B516">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B516" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C516" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
@@ -7891,11 +7931,11 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>62</v>
-      </c>
-      <c r="B517">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B517" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C517" t="s">
         <v>35</v>
@@ -7907,7 +7947,7 @@
         <v>15</v>
       </c>
       <c r="G517" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H517" t="s">
         <v>32</v>
@@ -7915,11 +7955,11 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>64</v>
-      </c>
-      <c r="B518">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B518" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C518" t="s">
         <v>35</v>
@@ -7931,7 +7971,7 @@
         <v>15</v>
       </c>
       <c r="G518" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H518" t="s">
         <v>32</v>
@@ -7939,23 +7979,23 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
+        <v>64</v>
+      </c>
+      <c r="B519" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C519" t="s">
+        <v>65</v>
+      </c>
+      <c r="D519" t="s">
+        <v>14</v>
+      </c>
+      <c r="F519" t="s">
+        <v>15</v>
+      </c>
+      <c r="G519" t="s">
         <v>66</v>
-      </c>
-      <c r="B519">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C519" t="s">
-        <v>67</v>
-      </c>
-      <c r="D519" t="s">
-        <v>14</v>
-      </c>
-      <c r="F519" t="s">
-        <v>15</v>
-      </c>
-      <c r="G519" t="s">
-        <v>68</v>
       </c>
       <c r="H519" t="s">
         <v>32</v>
@@ -7963,14 +8003,14 @@
     </row>
     <row r="520" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B520">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B520" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C520" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D520" t="s">
         <v>14</v>
@@ -7979,7 +8019,7 @@
         <v>15</v>
       </c>
       <c r="G520" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H520" t="s">
         <v>3</v>
@@ -7987,11 +8027,11 @@
     </row>
     <row r="521" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B521">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B521" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C521" t="s">
         <v>33</v>
@@ -8003,7 +8043,7 @@
         <v>15</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H521" t="s">
         <v>3</v>
@@ -8054,7 +8094,7 @@
         <v>11</v>
       </c>
       <c r="B528" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.35">
@@ -8062,7 +8102,7 @@
         <v>50</v>
       </c>
       <c r="B529" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.35">
@@ -8112,7 +8152,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C533" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D533" t="s">
         <v>14</v>
@@ -8178,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="C536" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D536" t="s">
         <v>14</v>
@@ -8195,13 +8235,13 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B537">
         <v>0.13321500162583566</v>
       </c>
       <c r="C537" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D537" t="s">
         <v>7</v>
@@ -8277,7 +8317,7 @@
         <v>11</v>
       </c>
       <c r="B546" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.35">
@@ -8316,13 +8356,13 @@
         <v>52</v>
       </c>
       <c r="B549">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D549" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F549" t="s">
         <v>15</v>
@@ -8342,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="C550" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D550" t="s">
         <v>14</v>
@@ -8480,7 +8520,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.35">
@@ -8496,7 +8536,7 @@
         <v>11</v>
       </c>
       <c r="B562" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="563" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -8535,8 +8575,8 @@
         <v>21</v>
       </c>
       <c r="B565">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C565" t="s">
         <v>33</v>
@@ -8562,10 +8602,10 @@
         <v>1</v>
       </c>
       <c r="C566" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D566" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F566" t="s">
         <v>22</v>
@@ -8579,35 +8619,38 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>59</v>
-      </c>
-      <c r="B567">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+        <v>81</v>
+      </c>
+      <c r="B567" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C567" t="s">
+        <v>55</v>
       </c>
       <c r="D567" t="s">
-        <v>43</v>
-      </c>
-      <c r="E567" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F567" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G567" t="s">
+        <v>82</v>
       </c>
       <c r="H567" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>61</v>
-      </c>
-      <c r="B568">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
+        <v>59</v>
+      </c>
+      <c r="B568" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C568" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D568" t="s">
         <v>7</v>
@@ -8624,11 +8667,11 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>62</v>
-      </c>
-      <c r="B569">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+        <v>60</v>
+      </c>
+      <c r="B569" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
       </c>
       <c r="C569" t="s">
         <v>35</v>
@@ -8640,7 +8683,7 @@
         <v>15</v>
       </c>
       <c r="G569" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H569" t="s">
         <v>32</v>
@@ -8648,11 +8691,11 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>64</v>
-      </c>
-      <c r="B570">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+        <v>62</v>
+      </c>
+      <c r="B570" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C570" t="s">
         <v>35</v>
@@ -8664,7 +8707,7 @@
         <v>15</v>
       </c>
       <c r="G570" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H570" t="s">
         <v>32</v>
@@ -8672,23 +8715,23 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
+        <v>64</v>
+      </c>
+      <c r="B571" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C571" t="s">
+        <v>65</v>
+      </c>
+      <c r="D571" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571" t="s">
+        <v>15</v>
+      </c>
+      <c r="G571" t="s">
         <v>66</v>
-      </c>
-      <c r="B571">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
-      </c>
-      <c r="C571" t="s">
-        <v>67</v>
-      </c>
-      <c r="D571" t="s">
-        <v>14</v>
-      </c>
-      <c r="F571" t="s">
-        <v>15</v>
-      </c>
-      <c r="G571" t="s">
-        <v>68</v>
       </c>
       <c r="H571" t="s">
         <v>32</v>
@@ -8696,14 +8739,14 @@
     </row>
     <row r="572" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B572">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B572" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C572" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D572" t="s">
         <v>14</v>
@@ -8712,7 +8755,7 @@
         <v>15</v>
       </c>
       <c r="G572" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H572" t="s">
         <v>3</v>
@@ -8720,11 +8763,11 @@
     </row>
     <row r="573" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B573">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
+        <v>68</v>
+      </c>
+      <c r="B573" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C573" t="s">
         <v>33</v>
@@ -8736,7 +8779,7 @@
         <v>15</v>
       </c>
       <c r="G573" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H573" t="s">
         <v>3</v>
@@ -8795,7 +8838,7 @@
         <v>50</v>
       </c>
       <c r="B581" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.35">
@@ -8928,7 +8971,7 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B589">
         <v>0.13321500162583566</v>
@@ -9049,13 +9092,13 @@
         <v>52</v>
       </c>
       <c r="B601">
-        <v>5.5277777777777777</v>
+        <v>1</v>
       </c>
       <c r="C601" t="s">
         <v>33</v>
       </c>
       <c r="D601" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F601" t="s">
         <v>15</v>
@@ -9213,143 +9256,162 @@
         <v>6</v>
       </c>
       <c r="B612" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B613" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A614" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A614" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>9</v>
+      </c>
+      <c r="B615" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" t="s">
         <v>11</v>
       </c>
-      <c r="B614" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A615" s="1" t="s">
-        <v>8</v>
+      <c r="D615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" t="s">
+        <v>12</v>
+      </c>
+      <c r="F615" t="s">
+        <v>4</v>
+      </c>
+      <c r="G615" t="s">
+        <v>2</v>
+      </c>
+      <c r="H615" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>9</v>
-      </c>
-      <c r="B616" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B616">
+        <f>12.89</f>
+        <v>12.89</v>
       </c>
       <c r="C616" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D616" t="s">
         <v>6</v>
       </c>
-      <c r="E616" t="s">
-        <v>12</v>
-      </c>
       <c r="F616" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G616" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H616" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B617">
-        <f>12.89/5.72</f>
-        <v>2.2534965034965038</v>
+        <v>1</v>
       </c>
       <c r="C617" t="s">
         <v>33</v>
       </c>
       <c r="D617" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F617" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G617" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H617" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>52</v>
-      </c>
-      <c r="B618">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B618" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
       </c>
       <c r="C618" t="s">
         <v>33</v>
       </c>
       <c r="D618" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F618" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G618" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H618" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>59</v>
       </c>
-      <c r="B619">
-        <f>3090000/44900000/5.472</f>
-        <v>1.2576681123744774E-2</v>
+      <c r="B619" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
+      </c>
+      <c r="C619" t="s">
+        <v>33</v>
       </c>
       <c r="D619" t="s">
-        <v>43</v>
-      </c>
-      <c r="E619" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F619" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G619" t="s">
+        <v>25</v>
       </c>
       <c r="H619" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
+        <v>60</v>
+      </c>
+      <c r="B620" s="5">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
+      </c>
+      <c r="C620" t="s">
+        <v>35</v>
+      </c>
+      <c r="D620" t="s">
+        <v>14</v>
+      </c>
+      <c r="F620" t="s">
+        <v>15</v>
+      </c>
+      <c r="G620" t="s">
         <v>61</v>
-      </c>
-      <c r="B620">
-        <f>13600000/44900000/5.472</f>
-        <v>5.5353677437841073E-2</v>
-      </c>
-      <c r="C620" t="s">
-        <v>33</v>
-      </c>
-      <c r="D620" t="s">
-        <v>7</v>
-      </c>
-      <c r="F620" t="s">
-        <v>15</v>
-      </c>
-      <c r="G620" t="s">
-        <v>25</v>
       </c>
       <c r="H620" t="s">
         <v>32</v>
@@ -9359,9 +9421,9 @@
       <c r="A621" t="s">
         <v>62</v>
       </c>
-      <c r="B621">
-        <f>356/44900000/5.472</f>
-        <v>1.4489639094023102E-6</v>
+      <c r="B621" s="5">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
       </c>
       <c r="C621" t="s">
         <v>35</v>
@@ -9383,12 +9445,12 @@
       <c r="A622" t="s">
         <v>64</v>
       </c>
-      <c r="B622">
-        <f>949/44900000/5.472</f>
-        <v>3.8625470506258219E-6</v>
+      <c r="B622" s="5">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
       </c>
       <c r="C622" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D622" t="s">
         <v>14</v>
@@ -9397,43 +9459,43 @@
         <v>15</v>
       </c>
       <c r="G622" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H622" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A623" t="s">
-        <v>66</v>
-      </c>
-      <c r="B623">
-        <f>178/44900000/5.472</f>
-        <v>7.2448195470115511E-7</v>
+    <row r="623" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A623" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B623" s="5">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
       </c>
       <c r="C623" t="s">
+        <v>33</v>
+      </c>
+      <c r="D623" t="s">
+        <v>14</v>
+      </c>
+      <c r="F623" t="s">
+        <v>15</v>
+      </c>
+      <c r="G623" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D623" t="s">
-        <v>14</v>
-      </c>
-      <c r="F623" t="s">
-        <v>15</v>
-      </c>
-      <c r="G623" t="s">
-        <v>68</v>
-      </c>
       <c r="H623" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="624" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B624">
-        <f>(6240000/44900000/42/5.472)*0.09</f>
-        <v>5.4423363531322738E-5</v>
+        <v>68</v>
+      </c>
+      <c r="B624" s="5">
+        <f>75900000/44900000</f>
+        <v>1.6904231625835189</v>
       </c>
       <c r="C624" t="s">
         <v>33</v>
@@ -9445,35 +9507,15 @@
         <v>15</v>
       </c>
       <c r="G624" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H624" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="625" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A625" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B625">
-        <f>75900000/44900000/5.472</f>
-        <v>0.30892236158324538</v>
-      </c>
-      <c r="C625" t="s">
-        <v>33</v>
-      </c>
-      <c r="D625" t="s">
-        <v>14</v>
-      </c>
-      <c r="F625" t="s">
-        <v>15</v>
-      </c>
-      <c r="G625" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H625" t="s">
-        <v>3</v>
-      </c>
+      <c r="A625" s="4"/>
+      <c r="G625" s="4"/>
     </row>
     <row r="627" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">

--- a/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEDC524-6640-48E7-91A0-550BEEA58270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F139BC-465F-456D-9969-25677CB48987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4674D2C-5661-4846-9F02-29F681DCA85F}">
   <dimension ref="A1:H643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B308" s="5">
         <f>(13600*1000)/44900000</f>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B360" s="5">
         <f>(13600*1000)/44900000</f>

--- a/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-lpg-from-methanol.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F139BC-465F-456D-9969-25677CB48987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,9 +205,6 @@
     <t>heat, from steam, in chemical industry</t>
   </si>
   <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
     <t>Carbon monoxide, non-fossil</t>
   </si>
   <si>
@@ -286,11 +282,14 @@
   <si>
     <t>CA-QC</t>
   </si>
+  <si>
+    <t>Carbon dioxide, from soil or biomass stock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -666,22 +665,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4674D2C-5661-4846-9F02-29F681DCA85F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -689,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -705,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -713,7 +712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -721,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -729,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -737,15 +736,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -753,12 +752,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -784,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -807,7 +806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -827,7 +826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -850,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -873,9 +872,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0.13321500162583566</v>
@@ -896,7 +895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -912,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -920,7 +919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -928,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -936,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -944,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -952,7 +951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -960,12 +959,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -991,7 +990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1060,9 +1059,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>0.13206758828730655</v>
@@ -1080,9 +1079,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>1.6694063119110985E-6</v>
@@ -1100,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1179,12 +1178,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1257,9 +1256,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -1275,15 +1274,15 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="5">
         <f>(13600*1000)/44900000</f>
@@ -1305,9 +1304,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="5">
         <f>356/44900000</f>
@@ -1323,15 +1322,15 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5">
         <f>949/44900000</f>
@@ -1347,39 +1346,39 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
         <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
       </c>
       <c r="H51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5">
         <f>6240000/44900000</f>
@@ -1395,15 +1394,15 @@
         <v>15</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B53" s="5">
         <f>75900000/44900000</f>
@@ -1419,13 +1418,13 @@
         <v>15</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1465,23 +1464,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -1489,12 +1488,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -1543,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>27</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -1609,15 +1608,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69">
         <v>0.13321500162583566</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1632,7 +1631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -1688,20 +1687,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -1750,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -1773,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -1796,9 +1795,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>0.13206758828730655</v>
@@ -1816,9 +1815,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85">
         <v>1.6694063119110985E-6</v>
@@ -1836,7 +1835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -1907,20 +1906,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -1970,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -1993,9 +1992,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B99" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -2011,22 +2010,22 @@
         <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B100" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2041,9 +2040,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B101" s="5">
         <f>356/44900000</f>
@@ -2059,15 +2058,15 @@
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102" s="5">
         <f>949/44900000</f>
@@ -2083,46 +2082,46 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
         <v>65</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>66</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B104" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -2131,15 +2130,15 @@
         <v>15</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B105" s="5">
         <f>75900000/44900000</f>
@@ -2155,13 +2154,13 @@
         <v>15</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -2201,23 +2200,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -2225,12 +2224,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -2279,7 +2278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>27</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -2345,15 +2344,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B121">
         <v>0.13321500162583566</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2368,7 +2367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -2424,20 +2423,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>52</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
@@ -2486,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
@@ -2509,7 +2508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>54</v>
       </c>
@@ -2532,9 +2531,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B136">
         <v>0.13206758828730655</v>
@@ -2552,9 +2551,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B137">
         <v>1.6694063119110985E-6</v>
@@ -2572,7 +2571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -2643,20 +2642,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -2729,9 +2728,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B151" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -2747,22 +2746,22 @@
         <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H151" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B152" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
@@ -2777,9 +2776,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B153" s="5">
         <f>356/44900000</f>
@@ -2795,15 +2794,15 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H153" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B154" s="5">
         <f>949/44900000</f>
@@ -2819,46 +2818,46 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H154" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
         <v>65</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>66</v>
       </c>
       <c r="H155" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B156" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -2867,15 +2866,15 @@
         <v>15</v>
       </c>
       <c r="G156" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B157" s="5">
         <f>75900000/44900000</f>
@@ -2891,13 +2890,13 @@
         <v>15</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -2937,23 +2936,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
       <c r="B165" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -2961,12 +2960,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -3015,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>27</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -3081,15 +3080,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B173">
         <v>0.13321500162583566</v>
       </c>
       <c r="C173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3104,7 +3103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>50</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -3160,20 +3159,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>52</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -3222,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -3245,7 +3244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -3268,9 +3267,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B188">
         <v>0.13206758828730655</v>
@@ -3288,9 +3287,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B189">
         <v>1.6694063119110985E-6</v>
@@ -3308,7 +3307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -3379,20 +3378,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D202" t="s">
         <v>14</v>
@@ -3465,9 +3464,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B203" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -3483,22 +3482,22 @@
         <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H203" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B204" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C204" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -3513,9 +3512,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B205" s="5">
         <f>356/44900000</f>
@@ -3531,15 +3530,15 @@
         <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H205" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B206" s="5">
         <f>949/44900000</f>
@@ -3555,46 +3554,46 @@
         <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H206" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B207" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C207" t="s">
+        <v>64</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>15</v>
+      </c>
+      <c r="G207" t="s">
         <v>65</v>
-      </c>
-      <c r="D207" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>66</v>
       </c>
       <c r="H207" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B208" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C208" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D208" t="s">
         <v>14</v>
@@ -3603,15 +3602,15 @@
         <v>15</v>
       </c>
       <c r="G208" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B209" s="5">
         <f>75900000/44900000</f>
@@ -3627,13 +3626,13 @@
         <v>15</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -3673,23 +3672,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>50</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -3697,12 +3696,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>9</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -3736,7 +3735,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C221" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -3751,7 +3750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>27</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -3817,15 +3816,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B225">
         <v>0.13321500162583566</v>
       </c>
       <c r="C225" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -3840,7 +3839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>50</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -3896,20 +3895,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>52</v>
       </c>
@@ -3943,7 +3942,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
@@ -3958,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -3981,7 +3980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -4004,9 +4003,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B240">
         <v>0.13206758828730655</v>
@@ -4024,9 +4023,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B241">
         <v>1.6694063119110985E-6</v>
@@ -4044,7 +4043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>29</v>
       </c>
@@ -4115,20 +4114,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>52</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
@@ -4201,9 +4200,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B255" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -4219,22 +4218,22 @@
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H255" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B256" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C256" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D256" t="s">
         <v>7</v>
@@ -4249,9 +4248,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B257" s="5">
         <f>356/44900000</f>
@@ -4267,15 +4266,15 @@
         <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H257" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B258" s="5">
         <f>949/44900000</f>
@@ -4291,46 +4290,46 @@
         <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H258" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B259" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C259" t="s">
+        <v>64</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>15</v>
+      </c>
+      <c r="G259" t="s">
         <v>65</v>
-      </c>
-      <c r="D259" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" t="s">
-        <v>66</v>
       </c>
       <c r="H259" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B260" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C260" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D260" t="s">
         <v>14</v>
@@ -4339,15 +4338,15 @@
         <v>15</v>
       </c>
       <c r="G260" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H260" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B261" s="5">
         <f>75900000/44900000</f>
@@ -4363,13 +4362,13 @@
         <v>15</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H261" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -4409,23 +4408,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>50</v>
       </c>
       <c r="B269" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>29</v>
       </c>
@@ -4433,12 +4432,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C273" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D273" t="s">
         <v>14</v>
@@ -4487,7 +4486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>27</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D276" t="s">
         <v>14</v>
@@ -4553,7 +4552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0.13321500162583566</v>
       </c>
       <c r="C277" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -4576,7 +4575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>50</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -4632,20 +4631,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>9</v>
       </c>
@@ -4671,7 +4670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D289" t="s">
         <v>14</v>
@@ -4694,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D290" t="s">
         <v>14</v>
@@ -4717,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>54</v>
       </c>
@@ -4740,9 +4739,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B292">
         <v>0.13206758828730655</v>
@@ -4760,9 +4759,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B293">
         <v>1.6694063119110985E-6</v>
@@ -4780,7 +4779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>29</v>
       </c>
@@ -4851,20 +4850,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>52</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D306" t="s">
         <v>14</v>
@@ -4937,9 +4936,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B307" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -4955,13 +4954,13 @@
         <v>15</v>
       </c>
       <c r="G307" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H307" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>23</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>0.30289532293986637</v>
       </c>
       <c r="C308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D308" t="s">
         <v>7</v>
@@ -4985,9 +4984,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B309" s="5">
         <f>356/44900000</f>
@@ -5003,15 +5002,15 @@
         <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H309" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B310" s="5">
         <f>949/44900000</f>
@@ -5027,46 +5026,46 @@
         <v>15</v>
       </c>
       <c r="G310" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H310" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B311" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C311" t="s">
+        <v>64</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" t="s">
         <v>65</v>
-      </c>
-      <c r="D311" t="s">
-        <v>14</v>
-      </c>
-      <c r="F311" t="s">
-        <v>15</v>
-      </c>
-      <c r="G311" t="s">
-        <v>66</v>
       </c>
       <c r="H311" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B312" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C312" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D312" t="s">
         <v>14</v>
@@ -5075,15 +5074,15 @@
         <v>15</v>
       </c>
       <c r="G312" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H312" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A313" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B313" s="5">
         <f>75900000/44900000</f>
@@ -5099,13 +5098,13 @@
         <v>15</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H313" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -5145,23 +5144,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>50</v>
       </c>
       <c r="B321" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>29</v>
       </c>
@@ -5169,12 +5168,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>9</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C325" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D325" t="s">
         <v>14</v>
@@ -5223,7 +5222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>27</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D328" t="s">
         <v>14</v>
@@ -5289,7 +5288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>0.13321500162583566</v>
       </c>
       <c r="C329" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -5312,7 +5311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>50</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>4</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -5368,20 +5367,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>9</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>52</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D341" t="s">
         <v>14</v>
@@ -5430,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D342" t="s">
         <v>14</v>
@@ -5453,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>54</v>
       </c>
@@ -5476,9 +5475,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B344">
         <v>0.13206758828730655</v>
@@ -5496,9 +5495,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B345">
         <v>1.6694063119110985E-6</v>
@@ -5516,7 +5515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>21</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>0</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>29</v>
       </c>
@@ -5587,20 +5586,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>21</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D358" t="s">
         <v>14</v>
@@ -5673,9 +5672,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B359" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -5691,13 +5690,13 @@
         <v>15</v>
       </c>
       <c r="G359" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H359" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>23</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>0.30289532293986637</v>
       </c>
       <c r="C360" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -5721,9 +5720,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B361" s="5">
         <f>356/44900000</f>
@@ -5739,15 +5738,15 @@
         <v>15</v>
       </c>
       <c r="G361" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H361" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B362" s="5">
         <f>949/44900000</f>
@@ -5763,46 +5762,46 @@
         <v>15</v>
       </c>
       <c r="G362" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H362" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B363" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C363" t="s">
+        <v>64</v>
+      </c>
+      <c r="D363" t="s">
+        <v>14</v>
+      </c>
+      <c r="F363" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" t="s">
         <v>65</v>
-      </c>
-      <c r="D363" t="s">
-        <v>14</v>
-      </c>
-      <c r="F363" t="s">
-        <v>15</v>
-      </c>
-      <c r="G363" t="s">
-        <v>66</v>
       </c>
       <c r="H363" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B364" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C364" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D364" t="s">
         <v>14</v>
@@ -5811,15 +5810,15 @@
         <v>15</v>
       </c>
       <c r="G364" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H364" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A365" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B365" s="5">
         <f>75900000/44900000</f>
@@ -5835,13 +5834,13 @@
         <v>15</v>
       </c>
       <c r="G365" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>0</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -5881,23 +5880,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>11</v>
       </c>
       <c r="B372" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>50</v>
       </c>
       <c r="B373" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>29</v>
       </c>
@@ -5905,12 +5904,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>9</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C377" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D377" t="s">
         <v>14</v>
@@ -5959,7 +5958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>21</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>27</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D380" t="s">
         <v>14</v>
@@ -6025,15 +6024,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B381">
         <v>0.13321500162583566</v>
       </c>
       <c r="C381" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D381" t="s">
         <v>7</v>
@@ -6048,7 +6047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>0</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>50</v>
       </c>
@@ -6072,7 +6071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>4</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -6096,7 +6095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>29</v>
       </c>
@@ -6104,20 +6103,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>11</v>
       </c>
       <c r="B390" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>9</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>52</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D393" t="s">
         <v>14</v>
@@ -6166,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D394" t="s">
         <v>14</v>
@@ -6189,7 +6188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>54</v>
       </c>
@@ -6212,9 +6211,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B396">
         <v>0.13206758828730655</v>
@@ -6232,9 +6231,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B397">
         <v>1.6694063119110985E-6</v>
@@ -6252,7 +6251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>0</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>4</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>6</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>29</v>
       </c>
@@ -6323,20 +6322,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>11</v>
       </c>
       <c r="B406" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>9</v>
       </c>
@@ -6362,7 +6361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>21</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>52</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="C410" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D410" t="s">
         <v>14</v>
@@ -6409,16 +6408,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B411" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C411" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D411" t="s">
         <v>14</v>
@@ -6427,22 +6426,22 @@
         <v>15</v>
       </c>
       <c r="G411" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H411" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B412" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C412" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
@@ -6457,9 +6456,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B413" s="5">
         <f>356/44900000</f>
@@ -6475,15 +6474,15 @@
         <v>15</v>
       </c>
       <c r="G413" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H413" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B414" s="5">
         <f>949/44900000</f>
@@ -6499,46 +6498,46 @@
         <v>15</v>
       </c>
       <c r="G414" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H414" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B415" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C415" t="s">
+        <v>64</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="F415" t="s">
+        <v>15</v>
+      </c>
+      <c r="G415" t="s">
         <v>65</v>
-      </c>
-      <c r="D415" t="s">
-        <v>14</v>
-      </c>
-      <c r="F415" t="s">
-        <v>15</v>
-      </c>
-      <c r="G415" t="s">
-        <v>66</v>
       </c>
       <c r="H415" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B416" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C416" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D416" t="s">
         <v>14</v>
@@ -6547,15 +6546,15 @@
         <v>15</v>
       </c>
       <c r="G416" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H416" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A417" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B417" s="5">
         <f>75900000/44900000</f>
@@ -6571,13 +6570,13 @@
         <v>15</v>
       </c>
       <c r="G417" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H417" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>0</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>6</v>
       </c>
@@ -6617,23 +6616,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>11</v>
       </c>
       <c r="B424" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>50</v>
       </c>
       <c r="B425" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>29</v>
       </c>
@@ -6641,12 +6640,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>9</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -6680,7 +6679,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C429" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D429" t="s">
         <v>14</v>
@@ -6695,7 +6694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>17</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>21</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>27</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D432" t="s">
         <v>14</v>
@@ -6761,15 +6760,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B433">
         <v>0.13321500162583566</v>
       </c>
       <c r="C433" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
@@ -6784,7 +6783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>0</v>
       </c>
@@ -6792,7 +6791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>50</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>4</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>29</v>
       </c>
@@ -6840,20 +6839,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>11</v>
       </c>
       <c r="B442" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>9</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>52</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="C445" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D445" t="s">
         <v>14</v>
@@ -6902,7 +6901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="C446" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D446" t="s">
         <v>14</v>
@@ -6925,7 +6924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>54</v>
       </c>
@@ -6948,9 +6947,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B448">
         <v>0.13206758828730655</v>
@@ -6968,9 +6967,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B449">
         <v>1.6694063119110985E-6</v>
@@ -6988,7 +6987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>21</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>0</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>4</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>29</v>
       </c>
@@ -7059,20 +7058,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>11</v>
       </c>
       <c r="B458" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>52</v>
       </c>
@@ -7130,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="C462" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D462" t="s">
         <v>14</v>
@@ -7145,9 +7144,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B463" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -7163,22 +7162,22 @@
         <v>15</v>
       </c>
       <c r="G463" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H463" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B464" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D464" t="s">
         <v>7</v>
@@ -7193,9 +7192,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B465" s="5">
         <f>356/44900000</f>
@@ -7211,15 +7210,15 @@
         <v>15</v>
       </c>
       <c r="G465" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H465" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B466" s="5">
         <f>949/44900000</f>
@@ -7235,46 +7234,46 @@
         <v>15</v>
       </c>
       <c r="G466" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H466" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B467" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C467" t="s">
+        <v>64</v>
+      </c>
+      <c r="D467" t="s">
+        <v>14</v>
+      </c>
+      <c r="F467" t="s">
+        <v>15</v>
+      </c>
+      <c r="G467" t="s">
         <v>65</v>
-      </c>
-      <c r="D467" t="s">
-        <v>14</v>
-      </c>
-      <c r="F467" t="s">
-        <v>15</v>
-      </c>
-      <c r="G467" t="s">
-        <v>66</v>
       </c>
       <c r="H467" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B468" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C468" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D468" t="s">
         <v>14</v>
@@ -7283,15 +7282,15 @@
         <v>15</v>
       </c>
       <c r="G468" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H468" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A469" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B469" s="5">
         <f>75900000/44900000</f>
@@ -7307,13 +7306,13 @@
         <v>15</v>
       </c>
       <c r="G469" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H469" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>0</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>2</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>6</v>
       </c>
@@ -7353,23 +7352,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>11</v>
       </c>
       <c r="B476" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>50</v>
       </c>
       <c r="B477" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>29</v>
       </c>
@@ -7377,12 +7376,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>9</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C481" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D481" t="s">
         <v>14</v>
@@ -7431,7 +7430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>17</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>21</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>27</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="C484" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D484" t="s">
         <v>14</v>
@@ -7497,15 +7496,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B485">
         <v>0.13321500162583566</v>
       </c>
       <c r="C485" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D485" t="s">
         <v>7</v>
@@ -7520,7 +7519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>50</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>2</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>6</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>29</v>
       </c>
@@ -7576,20 +7575,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>11</v>
       </c>
       <c r="B494" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>9</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>52</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="C497" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D497" t="s">
         <v>14</v>
@@ -7638,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="C498" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -7661,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>54</v>
       </c>
@@ -7684,9 +7683,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B500">
         <v>0.13206758828730655</v>
@@ -7704,9 +7703,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B501">
         <v>1.6694063119110985E-6</v>
@@ -7724,7 +7723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>21</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>2</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>6</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>29</v>
       </c>
@@ -7795,20 +7794,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>11</v>
       </c>
       <c r="B510" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>21</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>52</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="C514" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D514" t="s">
         <v>14</v>
@@ -7881,9 +7880,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B515" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -7899,22 +7898,22 @@
         <v>15</v>
       </c>
       <c r="G515" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H515" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B516" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C516" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D516" t="s">
         <v>7</v>
@@ -7929,9 +7928,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B517" s="5">
         <f>356/44900000</f>
@@ -7947,15 +7946,15 @@
         <v>15</v>
       </c>
       <c r="G517" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H517" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B518" s="5">
         <f>949/44900000</f>
@@ -7971,46 +7970,46 @@
         <v>15</v>
       </c>
       <c r="G518" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H518" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B519" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C519" t="s">
+        <v>64</v>
+      </c>
+      <c r="D519" t="s">
+        <v>14</v>
+      </c>
+      <c r="F519" t="s">
+        <v>15</v>
+      </c>
+      <c r="G519" t="s">
         <v>65</v>
-      </c>
-      <c r="D519" t="s">
-        <v>14</v>
-      </c>
-      <c r="F519" t="s">
-        <v>15</v>
-      </c>
-      <c r="G519" t="s">
-        <v>66</v>
       </c>
       <c r="H519" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B520" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C520" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D520" t="s">
         <v>14</v>
@@ -8019,15 +8018,15 @@
         <v>15</v>
       </c>
       <c r="G520" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A521" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H520" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A521" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B521" s="5">
         <f>75900000/44900000</f>
@@ -8043,13 +8042,13 @@
         <v>15</v>
       </c>
       <c r="G521" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H521" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>0</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>2</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>4</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>6</v>
       </c>
@@ -8089,23 +8088,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>11</v>
       </c>
       <c r="B528" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>50</v>
       </c>
       <c r="B529" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>29</v>
       </c>
@@ -8113,12 +8112,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>9</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>2.2053430633360036</v>
       </c>
       <c r="C533" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D533" t="s">
         <v>14</v>
@@ -8167,7 +8166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>17</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>21</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>27</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="C536" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D536" t="s">
         <v>14</v>
@@ -8233,15 +8232,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B537">
         <v>0.13321500162583566</v>
       </c>
       <c r="C537" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D537" t="s">
         <v>7</v>
@@ -8256,7 +8255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>0</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>50</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>2</v>
       </c>
@@ -8288,7 +8287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>4</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>6</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>29</v>
       </c>
@@ -8312,20 +8311,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>11</v>
       </c>
       <c r="B546" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>9</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>52</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="C549" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D549" t="s">
         <v>14</v>
@@ -8374,7 +8373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>13</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="C550" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D550" t="s">
         <v>14</v>
@@ -8397,7 +8396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>54</v>
       </c>
@@ -8420,9 +8419,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B552">
         <v>0.13206758828730655</v>
@@ -8440,9 +8439,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B553">
         <v>1.6694063119110985E-6</v>
@@ -8460,7 +8459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>21</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>0</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>2</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>4</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>29</v>
       </c>
@@ -8531,20 +8530,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>11</v>
       </c>
       <c r="B562" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>9</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>21</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>52</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="C566" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D566" t="s">
         <v>14</v>
@@ -8617,9 +8616,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B567" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -8635,22 +8634,22 @@
         <v>15</v>
       </c>
       <c r="G567" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H567" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B568" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
       <c r="C568" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D568" t="s">
         <v>7</v>
@@ -8665,9 +8664,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B569" s="5">
         <f>356/44900000</f>
@@ -8683,15 +8682,15 @@
         <v>15</v>
       </c>
       <c r="G569" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H569" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B570" s="5">
         <f>949/44900000</f>
@@ -8707,46 +8706,46 @@
         <v>15</v>
       </c>
       <c r="G570" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H570" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B571" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C571" t="s">
+        <v>64</v>
+      </c>
+      <c r="D571" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571" t="s">
+        <v>15</v>
+      </c>
+      <c r="G571" t="s">
         <v>65</v>
-      </c>
-      <c r="D571" t="s">
-        <v>14</v>
-      </c>
-      <c r="F571" t="s">
-        <v>15</v>
-      </c>
-      <c r="G571" t="s">
-        <v>66</v>
       </c>
       <c r="H571" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B572" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C572" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D572" t="s">
         <v>14</v>
@@ -8755,15 +8754,15 @@
         <v>15</v>
       </c>
       <c r="G572" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H572" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A573" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H572" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A573" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B573" s="5">
         <f>75900000/44900000</f>
@@ -8779,13 +8778,13 @@
         <v>15</v>
       </c>
       <c r="G573" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H573" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>0</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>2</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>4</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>11</v>
       </c>
@@ -8833,15 +8832,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>50</v>
       </c>
       <c r="B581" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>29</v>
       </c>
@@ -8849,12 +8848,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>9</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>17</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>21</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>27</v>
       </c>
@@ -8969,9 +8968,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B589">
         <v>0.13321500162583566</v>
@@ -8992,7 +8991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>50</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>2</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>4</v>
       </c>
@@ -9032,7 +9031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>6</v>
       </c>
@@ -9040,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>29</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>11</v>
       </c>
@@ -9056,12 +9055,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>9</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>52</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>13</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>54</v>
       </c>
@@ -9156,9 +9155,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B604">
         <v>0.13206758828730655</v>
@@ -9176,9 +9175,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B605">
         <v>1.6694063119110985E-6</v>
@@ -9196,7 +9195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>21</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>2</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>4</v>
       </c>
@@ -9251,7 +9250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>6</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>11</v>
       </c>
@@ -9267,12 +9266,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>21</v>
       </c>
@@ -9319,10 +9318,10 @@
         <v>21</v>
       </c>
       <c r="H616" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>52</v>
       </c>
@@ -9342,12 +9341,12 @@
         <v>53</v>
       </c>
       <c r="H617" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A618" t="s">
-        <v>81</v>
       </c>
       <c r="B618" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -9363,15 +9362,15 @@
         <v>15</v>
       </c>
       <c r="G618" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H618" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B619" s="5">
         <f>(13600*1000)/44900000</f>
@@ -9393,9 +9392,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B620" s="5">
         <f>356/44900000</f>
@@ -9411,15 +9410,15 @@
         <v>15</v>
       </c>
       <c r="G620" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H620" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B621" s="5">
         <f>949/44900000</f>
@@ -9435,39 +9434,39 @@
         <v>15</v>
       </c>
       <c r="G621" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H621" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B622" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
       <c r="C622" t="s">
+        <v>64</v>
+      </c>
+      <c r="D622" t="s">
+        <v>14</v>
+      </c>
+      <c r="F622" t="s">
+        <v>15</v>
+      </c>
+      <c r="G622" t="s">
         <v>65</v>
-      </c>
-      <c r="D622" t="s">
-        <v>14</v>
-      </c>
-      <c r="F622" t="s">
-        <v>15</v>
-      </c>
-      <c r="G622" t="s">
-        <v>66</v>
       </c>
       <c r="H622" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B623" s="5">
         <f>6240000/44900000</f>
@@ -9483,15 +9482,15 @@
         <v>15</v>
       </c>
       <c r="G623" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H623" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A624" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H623" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A624" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="B624" s="5">
         <f>75900000/44900000</f>
@@ -9507,17 +9506,17 @@
         <v>15</v>
       </c>
       <c r="G624" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H624" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="G625" s="4"/>
     </row>
-    <row r="627" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>0</v>
       </c>
@@ -9525,7 +9524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>2</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>4</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>6</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>29</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>11</v>
       </c>
@@ -9573,12 +9572,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>9</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>34</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>38</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>40</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>42</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>45</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>47</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>48</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>21</v>
       </c>
